--- a/binaries/CGFiles/ChannelGateTestData.xlsx
+++ b/binaries/CGFiles/ChannelGateTestData.xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13860" windowHeight="6330"/>
+    <workbookView activeTab="1" windowHeight="6330" windowWidth="13860" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Add Product" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Useremail</t>
   </si>
@@ -38,13 +37,296 @@
   </si>
   <si>
     <t>Test123!</t>
+  </si>
+  <si>
+    <t>Product Title</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Abbington</t>
+  </si>
+  <si>
+    <t>Baby / Baby Furniture / Baby Bassinets</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Country of Manufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP </t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Beige</t>
+  </si>
+  <si>
+    <t>Cast Iron</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Feature 1</t>
+  </si>
+  <si>
+    <t>Feature 2</t>
+  </si>
+  <si>
+    <t>Feature 3</t>
+  </si>
+  <si>
+    <t>Available Quantity</t>
+  </si>
+  <si>
+    <t>Shipping Service</t>
+  </si>
+  <si>
+    <t>Min Lead Time</t>
+  </si>
+  <si>
+    <t>Max Lead Time</t>
+  </si>
+  <si>
+    <t>HS Code</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty </t>
+  </si>
+  <si>
+    <t>Package Type</t>
+  </si>
+  <si>
+    <t>Package SKU</t>
+  </si>
+  <si>
+    <t>Carton</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>An excellent example of transitional style, the London collection by Test features plush hand-rubbed Italian leather cushioning, classic brass nailhead trim, and the perfect merger of contemporary sleek lines with traditional sumptuous curves. Transitional pieces such as these compliment both classic and modern decors without overpowering either.</t>
+  </si>
+  <si>
+    <t>Kiln-dried solid hardwood frame</t>
+  </si>
+  <si>
+    <t>Tempered glass</t>
+  </si>
+  <si>
+    <t>Leather match on sides and back</t>
+  </si>
+  <si>
+    <t>Dining Table Dimensions</t>
+  </si>
+  <si>
+    <t>Table Leaf Dimensions</t>
+  </si>
+  <si>
+    <t>Table Weight</t>
+  </si>
+  <si>
+    <t>35.5"W x 0.75"D</t>
+  </si>
+  <si>
+    <t>43.3" H x 4.9" W x 43.3" D</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>CG/SKU/1-4</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9403001050</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>Key1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Package Height</t>
+  </si>
+  <si>
+    <t>Package Width</t>
+  </si>
+  <si>
+    <t>Package Depth</t>
+  </si>
+  <si>
+    <t>Package Weight</t>
+  </si>
+  <si>
+    <t>Product Id</t>
+  </si>
+  <si>
+    <t>Net5-Check10</t>
+  </si>
+  <si>
+    <t>054132691452</t>
+  </si>
+  <si>
+    <t>2266776</t>
+  </si>
+  <si>
+    <t>Test Automation Title 10299</t>
+  </si>
+  <si>
+    <t>UPC2</t>
+  </si>
+  <si>
+    <t>UPC3</t>
+  </si>
+  <si>
+    <t>UPC4</t>
+  </si>
+  <si>
+    <t>987654321098</t>
+  </si>
+  <si>
+    <t>012000007897</t>
+  </si>
+  <si>
+    <t>036000291452</t>
+  </si>
+  <si>
+    <t>Test Automation Title 16</t>
+  </si>
+  <si>
+    <t>automation_sku_166</t>
+  </si>
+  <si>
+    <t>2266777</t>
+  </si>
+  <si>
+    <t>Test Automation Title 2453</t>
+  </si>
+  <si>
+    <t>Test Automation Title 96621</t>
+  </si>
+  <si>
+    <t>Test Automation Title 1629</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +341,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -76,24 +374,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -102,10 +444,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -261,7 +603,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -270,13 +612,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -286,7 +628,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -295,7 +637,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -304,7 +646,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -314,12 +656,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -350,7 +692,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -369,7 +711,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -382,17 +724,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -424,22 +766,321 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.4765625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.66015625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="61.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="42" max="44" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="90" r="2" spans="1:44">
+      <c r="A2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -451,6 +1092,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/binaries/CGFiles/ChannelGateTestData.xlsx
+++ b/binaries/CGFiles/ChannelGateTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>Useremail</t>
   </si>
@@ -273,18 +273,9 @@
     <t>Product Id</t>
   </si>
   <si>
-    <t>Net5-Check10</t>
-  </si>
-  <si>
     <t>054132691452</t>
   </si>
   <si>
-    <t>2266776</t>
-  </si>
-  <si>
-    <t>Test Automation Title 10299</t>
-  </si>
-  <si>
     <t>UPC2</t>
   </si>
   <si>
@@ -303,30 +294,152 @@
     <t>036000291452</t>
   </si>
   <si>
-    <t>Test Automation Title 16</t>
-  </si>
-  <si>
     <t>automation_sku_166</t>
   </si>
   <si>
     <t>2266777</t>
   </si>
   <si>
-    <t>Test Automation Title 2453</t>
-  </si>
-  <si>
-    <t>Test Automation Title 96621</t>
-  </si>
-  <si>
     <t>Test Automation Title 1629</t>
+  </si>
+  <si>
+    <t>Aero</t>
+  </si>
+  <si>
+    <t>Baby / Baby Furniture / Baby Dressers</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Organize and accessorize with the Bush Furniture Somerset 6 Drawer Dresser. Boasting metal hardware and tapered legs, the soothingly contemporary looks of the Ash Gray Dresser will have you feeling relaxed. The wear-resistant laminate finish fends off scratches, so place photos, vases or a jewelry box on top without a worry. Dresser drawers open and close on smooth ball-bearing slides for an easy reach to clothing in the back. Safety features include drawer interlock mechanism to prevent multiple drawers from opening at once on the same side, offset front feet for added stability, counterweight back panel and tip over restraint for anchoring to the wall. Start and finish your day immersed in the tranquil elegance of Somerset. Browse our full line of home furnishings to create an affordable bedroom set you'll adore. Backed by a 6 Year Warranty. American made with U.S. and imported parts.</t>
+  </si>
+  <si>
+    <t>Finish: Ash Gray</t>
+  </si>
+  <si>
+    <t>Material: Engineered Wood</t>
+  </si>
+  <si>
+    <t>Durable Ash Gray Dresser finish tested for quality wear and stain resistance</t>
+  </si>
+  <si>
+    <t>33.82" H x 59.29" W x 16.42" D</t>
+  </si>
+  <si>
+    <t>Dresser Dimensions</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>STS160AGK</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Desk Dimensions</t>
+  </si>
+  <si>
+    <t>Drawer Weight Capacity</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>automation_sku_508</t>
+  </si>
+  <si>
+    <t>2350955</t>
+  </si>
+  <si>
+    <t>Test Automation Title 7484</t>
+  </si>
+  <si>
+    <t>20357122682</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>12345678905</t>
+  </si>
+  <si>
+    <t>614141999996</t>
+  </si>
+  <si>
+    <t>42272010264</t>
+  </si>
+  <si>
+    <t>614141000036</t>
+  </si>
+  <si>
+    <t>234567899993</t>
+  </si>
+  <si>
+    <t>5701234567899</t>
+  </si>
+  <si>
+    <t>Test Automation Title 19</t>
+  </si>
+  <si>
+    <t>automation_sku_60</t>
+  </si>
+  <si>
+    <t>2350956</t>
+  </si>
+  <si>
+    <t>Test Automation Title 85609</t>
+  </si>
+  <si>
+    <t>Test Automation Title 15</t>
+  </si>
+  <si>
+    <t>automation_sku_255</t>
+  </si>
+  <si>
+    <t>Test Automation Title 10</t>
+  </si>
+  <si>
+    <t>automation_sku_785</t>
+  </si>
+  <si>
+    <t>Test Automation Title 50127</t>
+  </si>
+  <si>
+    <t>2350957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +460,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -366,12 +486,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -393,14 +524,15 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="43"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -420,17 +552,24 @@
     </xf>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="2"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
@@ -775,20 +914,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.4765625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.66015625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.0625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="16" max="16" customWidth="true" style="2" width="61.5703125" collapsed="true"/>
@@ -935,21 +1074,21 @@
         <v>41</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AR1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="90" r="2" spans="1:44">
-      <c r="A2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>97</v>
+      <c r="A2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -960,11 +1099,11 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>96</v>
+      <c r="F2" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -1069,13 +1208,187 @@
         <v>57</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="225" r="3" spans="1:44">
+      <c r="A3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="G4" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="G5" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="G6" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="G7" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="G8" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="G9" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="G10" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="G11" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/CGFiles/ChannelGateTestData.xlsx
+++ b/binaries/CGFiles/ChannelGateTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
   <si>
     <t>Useremail</t>
   </si>
@@ -430,6 +430,39 @@
   </si>
   <si>
     <t>2350957</t>
+  </si>
+  <si>
+    <t>automation_sku_204</t>
+  </si>
+  <si>
+    <t>Test Automation Title 32776</t>
+  </si>
+  <si>
+    <t>Test Automation Title 20</t>
+  </si>
+  <si>
+    <t>automation_sku_455</t>
+  </si>
+  <si>
+    <t>Test Automation Title 12</t>
+  </si>
+  <si>
+    <t>automation_sku_794</t>
+  </si>
+  <si>
+    <t>Test Automation Title 57935</t>
+  </si>
+  <si>
+    <t>Test Automation Title 13</t>
+  </si>
+  <si>
+    <t>automation_sku_969</t>
+  </si>
+  <si>
+    <t>2389173</t>
+  </si>
+  <si>
+    <t>Test Automation Title 1209</t>
   </si>
 </sst>
 </file>
@@ -532,7 +565,7 @@
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="43"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -557,6 +590,19 @@
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="2"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1084,11 +1130,11 @@
       </c>
     </row>
     <row ht="90" r="2" spans="1:44">
-      <c r="A2" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>137</v>
+      <c r="A2" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -1099,8 +1145,8 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>135</v>
+      <c r="F2" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>85</v>
